--- a/input/hola.xlsx
+++ b/input/hola.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">1980-04-13</t>
+    <t xml:space="preserve">1980-04-14</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
@@ -45,6 +45,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -65,6 +66,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,10 +144,10 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
